--- a/Excel_to_DF/Testing_Py.xlsx
+++ b/Excel_to_DF/Testing_Py.xlsx
@@ -1,62 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\john\OneDrive\Desktop\hold\Excel_to_DF\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D92B022-B17A-4702-8917-D6E986172545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="11625" yWindow="150" windowWidth="15705" windowHeight="14685" xr2:uid="{551138FC-80F2-4345-9DCA-D91079C14E7D}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="11625" yWindow="150" windowWidth="15705" windowHeight="14685" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="day" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>Hello World</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -75,21 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -409,54 +439,72 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98DDD657-0A3A-4C64-BB45-26CBB48F6DB5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col width="11.28515625" bestFit="1" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1">
+    <row r="1">
+      <c r="A1" t="n">
         <v>10</v>
       </c>
-      <c r="B1">
+      <c r="B1" t="n">
         <v>20</v>
       </c>
-      <c r="C1">
+      <c r="C1" t="n">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2">
+      <c r="A2" t="n">
         <v>40</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>50</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3">
+      <c r="A3" t="n">
         <v>70</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>80</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D7" t="s">
-        <v>0</v>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>World</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Hello World</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Excel_to_DF/Testing_Py.xlsx
+++ b/Excel_to_DF/Testing_Py.xlsx
@@ -444,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
@@ -459,52 +459,172 @@
       <c r="A1" t="n">
         <v>10</v>
       </c>
-      <c r="B1" t="n">
-        <v>20</v>
-      </c>
-      <c r="C1" t="n">
-        <v>30</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C2" t="n">
-        <v>60</v>
+        <v>20</v>
+      </c>
+      <c r="D2" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="B3" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="C3" t="n">
-        <v>90</v>
+        <v>50</v>
+      </c>
+      <c r="D3" t="n">
+        <v>20</v>
+      </c>
+      <c r="E3" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
+        <v>40</v>
+      </c>
+      <c r="C4" t="n">
+        <v>40</v>
+      </c>
+      <c r="D4" t="n">
+        <v>60</v>
+      </c>
+      <c r="E4" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>50</v>
+      </c>
+      <c r="C5" t="n">
+        <v>70</v>
+      </c>
+      <c r="D5" t="n">
+        <v>80</v>
+      </c>
+      <c r="E5" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>60</v>
+      </c>
+      <c r="C6" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+    <row r="7">
+      <c r="A7">
+        <f>SUM(A1:A6)</f>
+        <v/>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>World</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="D7" t="inlineStr">
+    <row r="8">
+      <c r="A8">
+        <f>A1+A2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <f>A1*A2</f>
+        <v/>
+      </c>
+      <c r="F9" t="inlineStr">
         <is>
           <t>Hello World</t>
         </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <f>A1/A2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <f>A1-A2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <f>A1^2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <f>SQRT(A1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <f>A1^A2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <f>A1%A2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <f>A1//A2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <f>A1&amp;A2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <f>A1&gt;A2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <f>A1&lt;A2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <f>A1=A2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <f>A1&lt;&gt;A2</f>
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/Excel_to_DF/Testing_Py.xlsx
+++ b/Excel_to_DF/Testing_Py.xlsx
@@ -1,33 +1,63 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\john\OneDrive\Desktop\hold\Excel_to_DF\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB1C8170-9E22-4F96-8AEF-930D19E23161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="11625" yWindow="150" windowWidth="15705" windowHeight="14685" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="11625" yWindow="150" windowWidth="15705" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="day" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="day" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>World</t>
+  </si>
+  <si>
+    <t>Hello World</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,80 +76,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -439,192 +410,172 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="11.28515625" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="n">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1">
         <v>10</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>20</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>10</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>20</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>30</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>30</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>40</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>50</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>20</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>30</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>40</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>40</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>60</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>60</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>50</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>70</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>80</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>60</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>60</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>100</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>SUM(A1:A6)</f>
-        <v/>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>World</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
+        <v>210</v>
+      </c>
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <f>A1+A2</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <f>A1*A2</f>
-        <v/>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Hello World</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
+        <v>200</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <f>A1/A2</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <f>A1-A2</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <f>A1^2</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <f>SQRT(A1)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14">
+        <v>3.1622776601683795</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <f>A1^A2</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15">
-        <f>A1%A2</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16">
-        <f>A1//A2</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17">
+        <v>1E+20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="str">
         <f>A1&amp;A2</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="b">
         <f>A1&gt;A2</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="b">
         <f>A1&lt;A2</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="b">
         <f>A1=A2</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="b">
         <f>A1&lt;&gt;A2</f>
-        <v/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
